--- a/Code/Results/Cases/Case_0_241/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_241/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.009228450267155353</v>
+        <v>0.01500074871952251</v>
       </c>
       <c r="D2">
-        <v>0.03595298443304529</v>
+        <v>0.1075639941003912</v>
       </c>
       <c r="E2">
-        <v>0.09580557568161652</v>
+        <v>0.13266765208677</v>
       </c>
       <c r="F2">
-        <v>4.376060458548551</v>
+        <v>2.729329427611674</v>
       </c>
       <c r="G2">
-        <v>4.462320094240397</v>
+        <v>2.200389605886699</v>
       </c>
       <c r="H2">
-        <v>2.215589627993893</v>
+        <v>1.609776939536573</v>
       </c>
       <c r="I2">
-        <v>2.996434061969936</v>
+        <v>1.648694371904597</v>
       </c>
       <c r="J2">
-        <v>0.2745193973878344</v>
+        <v>0.2129241647032103</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.008358387162740399</v>
+        <v>0.01495475488447084</v>
       </c>
       <c r="D3">
-        <v>0.03580181700459217</v>
+        <v>0.1077514045506696</v>
       </c>
       <c r="E3">
-        <v>0.08641192903492012</v>
+        <v>0.1316056239947621</v>
       </c>
       <c r="F3">
-        <v>3.789864439992641</v>
+        <v>2.614574432376259</v>
       </c>
       <c r="G3">
-        <v>3.839093852237369</v>
+        <v>2.070184954696032</v>
       </c>
       <c r="H3">
-        <v>1.9287664878741</v>
+        <v>1.556616617358628</v>
       </c>
       <c r="I3">
-        <v>2.585456446578675</v>
+        <v>1.565173675784195</v>
       </c>
       <c r="J3">
-        <v>0.2394827407526066</v>
+        <v>0.2067062043403638</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.007861625314852461</v>
+        <v>0.01493494521318794</v>
       </c>
       <c r="D4">
-        <v>0.03573109850820222</v>
+        <v>0.107875866184276</v>
       </c>
       <c r="E4">
-        <v>0.08090236138172813</v>
+        <v>0.1310269187202096</v>
       </c>
       <c r="F4">
-        <v>3.442465299513259</v>
+        <v>2.546056338326565</v>
       </c>
       <c r="G4">
-        <v>3.469152742461773</v>
+        <v>1.991836982531964</v>
       </c>
       <c r="H4">
-        <v>1.759046718004328</v>
+        <v>1.525089552693203</v>
       </c>
       <c r="I4">
-        <v>2.341656654426416</v>
+        <v>1.515082758864821</v>
       </c>
       <c r="J4">
-        <v>0.2187805282264748</v>
+        <v>0.2030360327594138</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.007667263748725617</v>
+        <v>0.01492897907347412</v>
       </c>
       <c r="D5">
-        <v>0.03570722662949244</v>
+        <v>0.1079289492167297</v>
       </c>
       <c r="E5">
-        <v>0.0787139903283034</v>
+        <v>0.13080945999139</v>
       </c>
       <c r="F5">
-        <v>3.30357936887907</v>
+        <v>2.518616852301335</v>
       </c>
       <c r="G5">
-        <v>3.321105217994187</v>
+        <v>1.960304707828357</v>
       </c>
       <c r="H5">
-        <v>1.691258118012826</v>
+        <v>1.512519096264384</v>
       </c>
       <c r="I5">
-        <v>2.244128972189685</v>
+        <v>1.494965473062436</v>
       </c>
       <c r="J5">
-        <v>0.2105187272973694</v>
+        <v>0.2015771646160616</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.007635442227492462</v>
+        <v>0.01492811523809934</v>
       </c>
       <c r="D6">
-        <v>0.0357035455564072</v>
+        <v>0.10793790646543</v>
       </c>
       <c r="E6">
-        <v>0.07835382784656275</v>
+        <v>0.1307744581071724</v>
       </c>
       <c r="F6">
-        <v>3.280666917960303</v>
+        <v>2.514089493075005</v>
       </c>
       <c r="G6">
-        <v>3.29667231325547</v>
+        <v>1.955092470030536</v>
       </c>
       <c r="H6">
-        <v>1.680078584031151</v>
+        <v>1.510448431505552</v>
       </c>
       <c r="I6">
-        <v>2.228035951424175</v>
+        <v>1.4916427149453</v>
       </c>
       <c r="J6">
-        <v>0.2091566183001916</v>
+        <v>0.2013371297368494</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.007858973030817396</v>
+        <v>0.01493485623934276</v>
       </c>
       <c r="D7">
-        <v>0.03573075726752761</v>
+        <v>0.107876572506173</v>
       </c>
       <c r="E7">
-        <v>0.08087262811451978</v>
+        <v>0.1310239117327185</v>
       </c>
       <c r="F7">
-        <v>3.440581950115757</v>
+        <v>2.545684335439148</v>
       </c>
       <c r="G7">
-        <v>3.467145767639579</v>
+        <v>1.991410136056288</v>
       </c>
       <c r="H7">
-        <v>1.758127221963264</v>
+        <v>1.524918905083638</v>
       </c>
       <c r="I7">
-        <v>2.34033438095463</v>
+        <v>1.514810260670487</v>
       </c>
       <c r="J7">
-        <v>0.2186684359751752</v>
+        <v>0.2030162096223904</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.008919797489376435</v>
+        <v>0.01498313195366308</v>
       </c>
       <c r="D8">
-        <v>0.03589587301558561</v>
+        <v>0.1076266656038589</v>
       </c>
       <c r="E8">
-        <v>0.09250783942806606</v>
+        <v>0.1322861816228844</v>
       </c>
       <c r="F8">
-        <v>4.1710376478066</v>
+        <v>2.689355098671854</v>
       </c>
       <c r="G8">
-        <v>4.24447295683953</v>
+        <v>2.155159211585641</v>
       </c>
       <c r="H8">
-        <v>2.115215810856199</v>
+        <v>1.591214328018481</v>
       </c>
       <c r="I8">
-        <v>2.85274598897297</v>
+        <v>1.619646549083043</v>
       </c>
       <c r="J8">
-        <v>0.2622516447961942</v>
+        <v>0.2107493281297366</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01137186129542656</v>
+        <v>0.0151453429096442</v>
       </c>
       <c r="D9">
-        <v>0.0364295376791226</v>
+        <v>0.1072110100357313</v>
       </c>
       <c r="E9">
-        <v>0.1178065177065051</v>
+        <v>0.1353479623010578</v>
       </c>
       <c r="F9">
-        <v>5.727994588383638</v>
+        <v>2.986798958259925</v>
       </c>
       <c r="G9">
-        <v>5.896217561381775</v>
+        <v>2.489277187964319</v>
       </c>
       <c r="H9">
-        <v>2.878714145875051</v>
+        <v>1.730198639824835</v>
       </c>
       <c r="I9">
-        <v>3.942827480289026</v>
+        <v>1.834892252438209</v>
       </c>
       <c r="J9">
-        <v>0.3557208902401356</v>
+        <v>0.2271041262268199</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01353333104735199</v>
+        <v>0.0153066505152637</v>
       </c>
       <c r="D10">
-        <v>0.03701286310138041</v>
+        <v>0.1069508684809621</v>
       </c>
       <c r="E10">
-        <v>0.1386503066875306</v>
+        <v>0.1379613603961403</v>
       </c>
       <c r="F10">
-        <v>6.991068860108612</v>
+        <v>3.21534896242585</v>
       </c>
       <c r="G10">
-        <v>7.232993747620299</v>
+        <v>2.743165916485282</v>
       </c>
       <c r="H10">
-        <v>3.499812109724928</v>
+        <v>1.837998461700465</v>
       </c>
       <c r="I10">
-        <v>4.82573972694496</v>
+        <v>1.999237326983689</v>
       </c>
       <c r="J10">
-        <v>0.4319785675800887</v>
+        <v>0.2398729209588879</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01463657138546992</v>
+        <v>0.01538939953681506</v>
       </c>
       <c r="D11">
-        <v>0.03734022850614327</v>
+        <v>0.1068423256005708</v>
       </c>
       <c r="E11">
-        <v>0.1488432932450152</v>
+        <v>0.1392307378497932</v>
       </c>
       <c r="F11">
-        <v>7.604443111047232</v>
+        <v>3.32159736931149</v>
       </c>
       <c r="G11">
-        <v>7.881477965644649</v>
+        <v>2.860601604875853</v>
       </c>
       <c r="H11">
-        <v>3.801869965549145</v>
+        <v>1.888322784717218</v>
       </c>
       <c r="I11">
-        <v>5.254171093917506</v>
+        <v>2.075419860908085</v>
       </c>
       <c r="J11">
-        <v>0.4691245925942553</v>
+        <v>0.2458514306728006</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01507642521372787</v>
+        <v>0.01542209969176156</v>
       </c>
       <c r="D12">
-        <v>0.03747553801742853</v>
+        <v>0.1068026307307428</v>
       </c>
       <c r="E12">
-        <v>0.1528297017755662</v>
+        <v>0.1397231131013577</v>
       </c>
       <c r="F12">
-        <v>7.843719785168815</v>
+        <v>3.362166558345194</v>
       </c>
       <c r="G12">
-        <v>8.13435604139238</v>
+        <v>2.905359000080978</v>
       </c>
       <c r="H12">
-        <v>3.919772731230523</v>
+        <v>1.907567967969442</v>
       </c>
       <c r="I12">
-        <v>5.421252730357565</v>
+        <v>2.10447810318459</v>
       </c>
       <c r="J12">
-        <v>0.4836335376247121</v>
+        <v>0.2481402578854244</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01498061986289656</v>
+        <v>0.01541499613716013</v>
       </c>
       <c r="D13">
-        <v>0.03744584489380198</v>
+        <v>0.1068111171222066</v>
       </c>
       <c r="E13">
-        <v>0.151965072908915</v>
+        <v>0.1396165496052433</v>
       </c>
       <c r="F13">
-        <v>7.791848860842066</v>
+        <v>3.353414228960958</v>
       </c>
       <c r="G13">
-        <v>8.079540713303629</v>
+        <v>2.895706797964522</v>
       </c>
       <c r="H13">
-        <v>3.894210269913003</v>
+        <v>1.903414733845125</v>
       </c>
       <c r="I13">
-        <v>5.385034603202087</v>
+        <v>2.098210485753555</v>
       </c>
       <c r="J13">
-        <v>0.4804874110922412</v>
+        <v>0.2476462033039724</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01467228297376266</v>
+        <v>0.01539206234078705</v>
       </c>
       <c r="D14">
-        <v>0.03735111642195887</v>
+        <v>0.1068390316654844</v>
       </c>
       <c r="E14">
-        <v>0.1491685593093699</v>
+        <v>0.1392710109424584</v>
       </c>
       <c r="F14">
-        <v>7.623978621126412</v>
+        <v>3.324928259606082</v>
       </c>
       <c r="G14">
-        <v>7.902125810222856</v>
+        <v>2.864278023235613</v>
       </c>
       <c r="H14">
-        <v>3.811494581261798</v>
+        <v>1.889902299789014</v>
       </c>
       <c r="I14">
-        <v>5.267813293361144</v>
+        <v>2.07780626958774</v>
       </c>
       <c r="J14">
-        <v>0.4703087854666279</v>
+        <v>0.2460392322431062</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01448646141087906</v>
+        <v>0.01537819301030652</v>
       </c>
       <c r="D15">
-        <v>0.03729465515106556</v>
+        <v>0.1068563134678397</v>
       </c>
       <c r="E15">
-        <v>0.1474729229137779</v>
+        <v>0.1390608841685363</v>
       </c>
       <c r="F15">
-        <v>7.522114295710082</v>
+        <v>3.307523659011053</v>
       </c>
       <c r="G15">
-        <v>7.794457654748271</v>
+        <v>2.845064614609498</v>
       </c>
       <c r="H15">
-        <v>3.761311642453165</v>
+        <v>1.881650193900043</v>
       </c>
       <c r="I15">
-        <v>5.196676587040798</v>
+        <v>2.065335547081503</v>
       </c>
       <c r="J15">
-        <v>0.4641347727120717</v>
+        <v>0.2450581720557352</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01346402712128381</v>
+        <v>0.01530143269788198</v>
       </c>
       <c r="D16">
-        <v>0.036992907223659</v>
+        <v>0.1069581590765658</v>
       </c>
       <c r="E16">
-        <v>0.1380004187294936</v>
+        <v>0.1378800333383303</v>
       </c>
       <c r="F16">
-        <v>6.951877813038806</v>
+        <v>3.208451882713092</v>
       </c>
       <c r="G16">
-        <v>7.191546260990663</v>
+        <v>2.735530945545804</v>
       </c>
       <c r="H16">
-        <v>3.480521534138745</v>
+        <v>1.834735823243136</v>
       </c>
       <c r="I16">
-        <v>4.798358879436478</v>
+        <v>1.994287658834168</v>
       </c>
       <c r="J16">
-        <v>0.4296075351680742</v>
+        <v>0.23948566966844</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01287054119713815</v>
+        <v>0.0152567547858844</v>
       </c>
       <c r="D17">
-        <v>0.03682517736165769</v>
+        <v>0.1070231466110485</v>
       </c>
       <c r="E17">
-        <v>0.132386912503339</v>
+        <v>0.1371763219990818</v>
       </c>
       <c r="F17">
-        <v>6.612898148104478</v>
+        <v>3.14826367969107</v>
       </c>
       <c r="G17">
-        <v>6.832976455614187</v>
+        <v>2.668838223621094</v>
       </c>
       <c r="H17">
-        <v>3.313717506190756</v>
+        <v>1.806287179186654</v>
       </c>
       <c r="I17">
-        <v>4.561494896412228</v>
+        <v>1.951069736925746</v>
       </c>
       <c r="J17">
-        <v>0.4091119700020869</v>
+        <v>0.2361109650743458</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0125401193274115</v>
+        <v>0.0152319380363366</v>
       </c>
       <c r="D18">
-        <v>0.03673435840967576</v>
+        <v>0.1070614478785616</v>
       </c>
       <c r="E18">
-        <v>0.1292233410637849</v>
+        <v>0.1367791389186905</v>
       </c>
       <c r="F18">
-        <v>6.421474195003782</v>
+        <v>3.113859156461672</v>
       </c>
       <c r="G18">
-        <v>6.630428005773069</v>
+        <v>2.630660485871545</v>
       </c>
       <c r="H18">
-        <v>3.219561549290972</v>
+        <v>1.790045062812396</v>
       </c>
       <c r="I18">
-        <v>4.427706712678457</v>
+        <v>1.926345376060937</v>
       </c>
       <c r="J18">
-        <v>0.3975481538100496</v>
+        <v>0.2341858897510747</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.012429997141016</v>
+        <v>0.01522368626370607</v>
       </c>
       <c r="D19">
-        <v>0.03670451772541039</v>
+        <v>0.1070745744399382</v>
       </c>
       <c r="E19">
-        <v>0.1281627582895588</v>
+        <v>0.1366459569529717</v>
       </c>
       <c r="F19">
-        <v>6.357232980590339</v>
+        <v>3.102246932674007</v>
       </c>
       <c r="G19">
-        <v>6.562442766670699</v>
+        <v>2.617765203410215</v>
       </c>
       <c r="H19">
-        <v>3.187969710917059</v>
+        <v>1.784566399661514</v>
       </c>
       <c r="I19">
-        <v>4.382802828370416</v>
+        <v>1.917996894752775</v>
       </c>
       <c r="J19">
-        <v>0.393669069817733</v>
+        <v>0.2335368205613122</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01293255644090863</v>
+        <v>0.01526141954071036</v>
       </c>
       <c r="D20">
-        <v>0.03684243203503179</v>
+        <v>0.1070161331441852</v>
       </c>
       <c r="E20">
-        <v>0.1329775783139908</v>
+        <v>0.1372504487062614</v>
       </c>
       <c r="F20">
-        <v>6.648606702787532</v>
+        <v>3.154648601167054</v>
       </c>
       <c r="G20">
-        <v>6.870755087868474</v>
+        <v>2.675918868217252</v>
       </c>
       <c r="H20">
-        <v>3.331284714205196</v>
+        <v>1.80930305883669</v>
       </c>
       <c r="I20">
-        <v>4.586449550563458</v>
+        <v>1.95565651010952</v>
       </c>
       <c r="J20">
-        <v>0.4112699277782497</v>
+        <v>0.2364685524690486</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01476220390939176</v>
+        <v>0.01539876136780194</v>
       </c>
       <c r="D21">
-        <v>0.03737860931243464</v>
+        <v>0.1068307942810289</v>
       </c>
       <c r="E21">
-        <v>0.1499863032547459</v>
+        <v>0.1393721858826531</v>
       </c>
       <c r="F21">
-        <v>7.673082794974533</v>
+        <v>3.333286121714707</v>
       </c>
       <c r="G21">
-        <v>7.954024443004698</v>
+        <v>2.873501560967327</v>
       </c>
       <c r="H21">
-        <v>3.835688013776291</v>
+        <v>1.893866085626826</v>
       </c>
       <c r="I21">
-        <v>5.302103346159157</v>
+        <v>2.083793752641611</v>
       </c>
       <c r="J21">
-        <v>0.4732856523887818</v>
+        <v>0.2465105592145989</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01609011151113648</v>
+        <v>0.01549648643440449</v>
       </c>
       <c r="D22">
-        <v>0.03779691782207095</v>
+        <v>0.1067178711083758</v>
       </c>
       <c r="E22">
-        <v>0.1618564494668071</v>
+        <v>0.1408270527599811</v>
       </c>
       <c r="F22">
-        <v>8.384434032457989</v>
+        <v>3.451993562778256</v>
       </c>
       <c r="G22">
-        <v>8.705638174616297</v>
+        <v>3.0043102689649</v>
       </c>
       <c r="H22">
-        <v>4.186345383923367</v>
+        <v>1.950233095680687</v>
       </c>
       <c r="I22">
-        <v>5.79873015642471</v>
+        <v>2.168762892302453</v>
       </c>
       <c r="J22">
-        <v>0.5164565602154028</v>
+        <v>0.2532189225224784</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0153672820969426</v>
+        <v>0.01544359403042606</v>
       </c>
       <c r="D23">
-        <v>0.03756642051133285</v>
+        <v>0.1067773896412065</v>
       </c>
       <c r="E23">
-        <v>0.1554423258390685</v>
+        <v>0.1400442865526053</v>
       </c>
       <c r="F23">
-        <v>8.000370022655915</v>
+        <v>3.388455569686528</v>
       </c>
       <c r="G23">
-        <v>8.299885069180959</v>
+        <v>2.934339055916894</v>
       </c>
       <c r="H23">
-        <v>3.996982111861939</v>
+        <v>1.920047087610783</v>
       </c>
       <c r="I23">
-        <v>5.530624330081139</v>
+        <v>2.123299507958961</v>
       </c>
       <c r="J23">
-        <v>0.4931376419434486</v>
+        <v>0.2496250895907792</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01290448611159434</v>
+        <v>0.01525930789880192</v>
       </c>
       <c r="D24">
-        <v>0.03683461389137932</v>
+        <v>0.1070193010077216</v>
       </c>
       <c r="E24">
-        <v>0.1327103416095454</v>
+        <v>0.1372169130121357</v>
       </c>
       <c r="F24">
-        <v>6.632452190510406</v>
+        <v>3.151761360513774</v>
       </c>
       <c r="G24">
-        <v>6.853664268869636</v>
+        <v>2.672717196094936</v>
       </c>
       <c r="H24">
-        <v>3.323337205006226</v>
+        <v>1.807939226738313</v>
       </c>
       <c r="I24">
-        <v>4.575160184236097</v>
+        <v>1.953582449725758</v>
       </c>
       <c r="J24">
-        <v>0.4102936382305558</v>
+        <v>0.2363068402489432</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01065682114865041</v>
+        <v>0.01509413279875815</v>
       </c>
       <c r="D25">
-        <v>0.03625713162525024</v>
+        <v>0.1073155030958837</v>
       </c>
       <c r="E25">
-        <v>0.1106288984942836</v>
+        <v>0.1344562352988277</v>
       </c>
       <c r="F25">
-        <v>5.289520436180538</v>
+        <v>2.904605856285286</v>
       </c>
       <c r="G25">
-        <v>5.431584015907049</v>
+        <v>2.397447652994629</v>
       </c>
       <c r="H25">
-        <v>2.663428207795732</v>
+        <v>1.691616583404766</v>
       </c>
       <c r="I25">
-        <v>3.636065078659556</v>
+        <v>1.775596163979088</v>
       </c>
       <c r="J25">
-        <v>0.3293315093623903</v>
+        <v>0.2225495127181745</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_241/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_241/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01500074871952251</v>
+        <v>0.009228450266874688</v>
       </c>
       <c r="D2">
-        <v>0.1075639941003912</v>
+        <v>0.03595298443327843</v>
       </c>
       <c r="E2">
-        <v>0.13266765208677</v>
+        <v>0.09580557568162362</v>
       </c>
       <c r="F2">
-        <v>2.729329427611674</v>
+        <v>4.376060458548551</v>
       </c>
       <c r="G2">
-        <v>2.200389605886699</v>
+        <v>4.462320094240397</v>
       </c>
       <c r="H2">
-        <v>1.609776939536573</v>
+        <v>2.215589627993836</v>
       </c>
       <c r="I2">
-        <v>1.648694371904597</v>
+        <v>2.996434061969936</v>
       </c>
       <c r="J2">
-        <v>0.2129241647032103</v>
+        <v>0.2745193973879481</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01495475488447084</v>
+        <v>0.00835838716246684</v>
       </c>
       <c r="D3">
-        <v>0.1077514045506696</v>
+        <v>0.03580181700458107</v>
       </c>
       <c r="E3">
-        <v>0.1316056239947621</v>
+        <v>0.08641192903491302</v>
       </c>
       <c r="F3">
-        <v>2.614574432376259</v>
+        <v>3.78986443999267</v>
       </c>
       <c r="G3">
-        <v>2.070184954696032</v>
+        <v>3.839093852237283</v>
       </c>
       <c r="H3">
-        <v>1.556616617358628</v>
+        <v>1.9287664878741</v>
       </c>
       <c r="I3">
-        <v>1.565173675784195</v>
+        <v>2.585456446578689</v>
       </c>
       <c r="J3">
-        <v>0.2067062043403638</v>
+        <v>0.239482740752706</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01493494521318794</v>
+        <v>0.007861625314852461</v>
       </c>
       <c r="D4">
-        <v>0.107875866184276</v>
+        <v>0.03573109850804479</v>
       </c>
       <c r="E4">
-        <v>0.1310269187202096</v>
+        <v>0.0809023613816926</v>
       </c>
       <c r="F4">
-        <v>2.546056338326565</v>
+        <v>3.442465299513287</v>
       </c>
       <c r="G4">
-        <v>1.991836982531964</v>
+        <v>3.46915274246183</v>
       </c>
       <c r="H4">
-        <v>1.525089552693203</v>
+        <v>1.759046718004328</v>
       </c>
       <c r="I4">
-        <v>1.515082758864821</v>
+        <v>2.341656654426444</v>
       </c>
       <c r="J4">
-        <v>0.2030360327594138</v>
+        <v>0.2187805282263753</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01492897907347412</v>
+        <v>0.007667263748722064</v>
       </c>
       <c r="D5">
-        <v>0.1079289492167297</v>
+        <v>0.03570722662948356</v>
       </c>
       <c r="E5">
-        <v>0.13080945999139</v>
+        <v>0.0787139903283034</v>
       </c>
       <c r="F5">
-        <v>2.518616852301335</v>
+        <v>3.30357936887907</v>
       </c>
       <c r="G5">
-        <v>1.960304707828357</v>
+        <v>3.321105217994244</v>
       </c>
       <c r="H5">
-        <v>1.512519096264384</v>
+        <v>1.691258118012854</v>
       </c>
       <c r="I5">
-        <v>1.494965473062436</v>
+        <v>2.244128972189685</v>
       </c>
       <c r="J5">
-        <v>0.2015771646160616</v>
+        <v>0.210518727297341</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01492811523809934</v>
+        <v>0.007635442227496014</v>
       </c>
       <c r="D6">
-        <v>0.10793790646543</v>
+        <v>0.03570354555654309</v>
       </c>
       <c r="E6">
-        <v>0.1307744581071724</v>
+        <v>0.07835382784659473</v>
       </c>
       <c r="F6">
-        <v>2.514089493075005</v>
+        <v>3.280666917960303</v>
       </c>
       <c r="G6">
-        <v>1.955092470030536</v>
+        <v>3.296672313255499</v>
       </c>
       <c r="H6">
-        <v>1.510448431505552</v>
+        <v>1.680078584031264</v>
       </c>
       <c r="I6">
-        <v>1.4916427149453</v>
+        <v>2.228035951424175</v>
       </c>
       <c r="J6">
-        <v>0.2013371297368494</v>
+        <v>0.2091566183002627</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01493485623934276</v>
+        <v>0.00785897303081029</v>
       </c>
       <c r="D7">
-        <v>0.107876572506173</v>
+        <v>0.035730757267872</v>
       </c>
       <c r="E7">
-        <v>0.1310239117327185</v>
+        <v>0.08087262811455886</v>
       </c>
       <c r="F7">
-        <v>2.545684335439148</v>
+        <v>3.440581950115813</v>
       </c>
       <c r="G7">
-        <v>1.991410136056288</v>
+        <v>3.467145767639607</v>
       </c>
       <c r="H7">
-        <v>1.524918905083638</v>
+        <v>1.758127221963235</v>
       </c>
       <c r="I7">
-        <v>1.514810260670487</v>
+        <v>2.340334380954658</v>
       </c>
       <c r="J7">
-        <v>0.2030162096223904</v>
+        <v>0.2186684359749904</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01498313195366308</v>
+        <v>0.008919797489667758</v>
       </c>
       <c r="D8">
-        <v>0.1076266656038589</v>
+        <v>0.0358958730156016</v>
       </c>
       <c r="E8">
-        <v>0.1322861816228844</v>
+        <v>0.09250783942807317</v>
       </c>
       <c r="F8">
-        <v>2.689355098671854</v>
+        <v>4.171037647806543</v>
       </c>
       <c r="G8">
-        <v>2.155159211585641</v>
+        <v>4.24447295683953</v>
       </c>
       <c r="H8">
-        <v>1.591214328018481</v>
+        <v>2.115215810856171</v>
       </c>
       <c r="I8">
-        <v>1.619646549083043</v>
+        <v>2.852745988972941</v>
       </c>
       <c r="J8">
-        <v>0.2107493281297366</v>
+        <v>0.2622516447962226</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0151453429096442</v>
+        <v>0.01137186129543011</v>
       </c>
       <c r="D9">
-        <v>0.1072110100357313</v>
+        <v>0.0364295376793482</v>
       </c>
       <c r="E9">
-        <v>0.1353479623010578</v>
+        <v>0.1178065177064944</v>
       </c>
       <c r="F9">
-        <v>2.986798958259925</v>
+        <v>5.727994588383581</v>
       </c>
       <c r="G9">
-        <v>2.489277187964319</v>
+        <v>5.896217561381661</v>
       </c>
       <c r="H9">
-        <v>1.730198639824835</v>
+        <v>2.878714145875051</v>
       </c>
       <c r="I9">
-        <v>1.834892252438209</v>
+        <v>3.942827480289026</v>
       </c>
       <c r="J9">
-        <v>0.2271041262268199</v>
+        <v>0.3557208902401783</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0153066505152637</v>
+        <v>0.01353333104736265</v>
       </c>
       <c r="D10">
-        <v>0.1069508684809621</v>
+        <v>0.03701286310118324</v>
       </c>
       <c r="E10">
-        <v>0.1379613603961403</v>
+        <v>0.1386503066875839</v>
       </c>
       <c r="F10">
-        <v>3.21534896242585</v>
+        <v>6.991068860108555</v>
       </c>
       <c r="G10">
-        <v>2.743165916485282</v>
+        <v>7.232993747620128</v>
       </c>
       <c r="H10">
-        <v>1.837998461700465</v>
+        <v>3.499812109724928</v>
       </c>
       <c r="I10">
-        <v>1.999237326983689</v>
+        <v>4.825739726944931</v>
       </c>
       <c r="J10">
-        <v>0.2398729209588879</v>
+        <v>0.4319785675800176</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01538939953681506</v>
+        <v>0.01463657138582164</v>
       </c>
       <c r="D11">
-        <v>0.1068423256005708</v>
+        <v>0.03734022850632357</v>
       </c>
       <c r="E11">
-        <v>0.1392307378497932</v>
+        <v>0.1488432932450223</v>
       </c>
       <c r="F11">
-        <v>3.32159736931149</v>
+        <v>7.604443111047203</v>
       </c>
       <c r="G11">
-        <v>2.860601604875853</v>
+        <v>7.881477965644478</v>
       </c>
       <c r="H11">
-        <v>1.888322784717218</v>
+        <v>3.801869965549145</v>
       </c>
       <c r="I11">
-        <v>2.075419860908085</v>
+        <v>5.254171093917449</v>
       </c>
       <c r="J11">
-        <v>0.2458514306728006</v>
+        <v>0.469124592594369</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01542209969176156</v>
+        <v>0.01507642521337615</v>
       </c>
       <c r="D12">
-        <v>0.1068026307307428</v>
+        <v>0.03747553801764125</v>
       </c>
       <c r="E12">
-        <v>0.1397231131013577</v>
+        <v>0.1528297017755484</v>
       </c>
       <c r="F12">
-        <v>3.362166558345194</v>
+        <v>7.843719785168815</v>
       </c>
       <c r="G12">
-        <v>2.905359000080978</v>
+        <v>8.13435604139255</v>
       </c>
       <c r="H12">
-        <v>1.907567967969442</v>
+        <v>3.919772731230466</v>
       </c>
       <c r="I12">
-        <v>2.10447810318459</v>
+        <v>5.421252730357594</v>
       </c>
       <c r="J12">
-        <v>0.2481402578854244</v>
+        <v>0.4836335376246126</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01541499613716013</v>
+        <v>0.01498061986290367</v>
       </c>
       <c r="D13">
-        <v>0.1068111171222066</v>
+        <v>0.03744584489382019</v>
       </c>
       <c r="E13">
-        <v>0.1396165496052433</v>
+        <v>0.1519650729089044</v>
       </c>
       <c r="F13">
-        <v>3.353414228960958</v>
+        <v>7.791848860842009</v>
       </c>
       <c r="G13">
-        <v>2.895706797964522</v>
+        <v>8.079540713303459</v>
       </c>
       <c r="H13">
-        <v>1.903414733845125</v>
+        <v>3.894210269913003</v>
       </c>
       <c r="I13">
-        <v>2.098210485753555</v>
+        <v>5.38503460320203</v>
       </c>
       <c r="J13">
-        <v>0.2476462033039724</v>
+        <v>0.4804874110922128</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01539206234078705</v>
+        <v>0.01467228297431333</v>
       </c>
       <c r="D14">
-        <v>0.1068390316654844</v>
+        <v>0.03735111642192157</v>
       </c>
       <c r="E14">
-        <v>0.1392710109424584</v>
+        <v>0.1491685593094161</v>
       </c>
       <c r="F14">
-        <v>3.324928259606082</v>
+        <v>7.623978621126469</v>
       </c>
       <c r="G14">
-        <v>2.864278023235613</v>
+        <v>7.902125810222856</v>
       </c>
       <c r="H14">
-        <v>1.889902299789014</v>
+        <v>3.811494581261854</v>
       </c>
       <c r="I14">
-        <v>2.07780626958774</v>
+        <v>5.267813293361201</v>
       </c>
       <c r="J14">
-        <v>0.2460392322431062</v>
+        <v>0.4703087854668979</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01537819301030652</v>
+        <v>0.01448646141158605</v>
       </c>
       <c r="D15">
-        <v>0.1068563134678397</v>
+        <v>0.03729465515143637</v>
       </c>
       <c r="E15">
-        <v>0.1390608841685363</v>
+        <v>0.1474729229137921</v>
       </c>
       <c r="F15">
-        <v>3.307523659011053</v>
+        <v>7.522114295709969</v>
       </c>
       <c r="G15">
-        <v>2.845064614609498</v>
+        <v>7.794457654748214</v>
       </c>
       <c r="H15">
-        <v>1.881650193900043</v>
+        <v>3.761311642453109</v>
       </c>
       <c r="I15">
-        <v>2.065335547081503</v>
+        <v>5.196676587040798</v>
       </c>
       <c r="J15">
-        <v>0.2450581720557352</v>
+        <v>0.4641347727121143</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01530143269788198</v>
+        <v>0.0134640271210742</v>
       </c>
       <c r="D16">
-        <v>0.1069581590765658</v>
+        <v>0.0369929072232833</v>
       </c>
       <c r="E16">
-        <v>0.1378800333383303</v>
+        <v>0.1380004187294972</v>
       </c>
       <c r="F16">
-        <v>3.208451882713092</v>
+        <v>6.951877813038777</v>
       </c>
       <c r="G16">
-        <v>2.735530945545804</v>
+        <v>7.191546260990606</v>
       </c>
       <c r="H16">
-        <v>1.834735823243136</v>
+        <v>3.480521534138802</v>
       </c>
       <c r="I16">
-        <v>1.994287658834168</v>
+        <v>4.798358879436478</v>
       </c>
       <c r="J16">
-        <v>0.23948566966844</v>
+        <v>0.4296075351677757</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0152567547858844</v>
+        <v>0.01287054119780962</v>
       </c>
       <c r="D17">
-        <v>0.1070231466110485</v>
+        <v>0.03682517736181934</v>
       </c>
       <c r="E17">
-        <v>0.1371763219990818</v>
+        <v>0.1323869125033603</v>
       </c>
       <c r="F17">
-        <v>3.14826367969107</v>
+        <v>6.612898148104506</v>
       </c>
       <c r="G17">
-        <v>2.668838223621094</v>
+        <v>6.8329764556143</v>
       </c>
       <c r="H17">
-        <v>1.806287179186654</v>
+        <v>3.313717506190756</v>
       </c>
       <c r="I17">
-        <v>1.951069736925746</v>
+        <v>4.561494896412199</v>
       </c>
       <c r="J17">
-        <v>0.2361109650743458</v>
+        <v>0.4091119700020727</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0152319380363366</v>
+        <v>0.01254011932773125</v>
       </c>
       <c r="D18">
-        <v>0.1070614478785616</v>
+        <v>0.03673435840943906</v>
       </c>
       <c r="E18">
-        <v>0.1367791389186905</v>
+        <v>0.1292233410637955</v>
       </c>
       <c r="F18">
-        <v>3.113859156461672</v>
+        <v>6.42147419500381</v>
       </c>
       <c r="G18">
-        <v>2.630660485871545</v>
+        <v>6.630428005773126</v>
       </c>
       <c r="H18">
-        <v>1.790045062812396</v>
+        <v>3.219561549291029</v>
       </c>
       <c r="I18">
-        <v>1.926345376060937</v>
+        <v>4.427706712678457</v>
       </c>
       <c r="J18">
-        <v>0.2341858897510747</v>
+        <v>0.3975481538100922</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01522368626370607</v>
+        <v>0.01242999714100534</v>
       </c>
       <c r="D19">
-        <v>0.1070745744399382</v>
+        <v>0.03670451772556671</v>
       </c>
       <c r="E19">
-        <v>0.1366459569529717</v>
+        <v>0.1281627582895517</v>
       </c>
       <c r="F19">
-        <v>3.102246932674007</v>
+        <v>6.357232980590311</v>
       </c>
       <c r="G19">
-        <v>2.617765203410215</v>
+        <v>6.562442766670756</v>
       </c>
       <c r="H19">
-        <v>1.784566399661514</v>
+        <v>3.187969710917116</v>
       </c>
       <c r="I19">
-        <v>1.917996894752775</v>
+        <v>4.382802828370501</v>
       </c>
       <c r="J19">
-        <v>0.2335368205613122</v>
+        <v>0.3936690698177046</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01526141954071036</v>
+        <v>0.01293255644091218</v>
       </c>
       <c r="D20">
-        <v>0.1070161331441852</v>
+        <v>0.03684243203520765</v>
       </c>
       <c r="E20">
-        <v>0.1372504487062614</v>
+        <v>0.1329775783140157</v>
       </c>
       <c r="F20">
-        <v>3.154648601167054</v>
+        <v>6.648606702787504</v>
       </c>
       <c r="G20">
-        <v>2.675918868217252</v>
+        <v>6.870755087868588</v>
       </c>
       <c r="H20">
-        <v>1.80930305883669</v>
+        <v>3.331284714205253</v>
       </c>
       <c r="I20">
-        <v>1.95565651010952</v>
+        <v>4.58644955056343</v>
       </c>
       <c r="J20">
-        <v>0.2364685524690486</v>
+        <v>0.4112699277783491</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01539876136780194</v>
+        <v>0.01476220390883043</v>
       </c>
       <c r="D21">
-        <v>0.1068307942810289</v>
+        <v>0.03737860931264292</v>
       </c>
       <c r="E21">
-        <v>0.1393721858826531</v>
+        <v>0.1499863032547246</v>
       </c>
       <c r="F21">
-        <v>3.333286121714707</v>
+        <v>7.673082794974533</v>
       </c>
       <c r="G21">
-        <v>2.873501560967327</v>
+        <v>7.954024443004528</v>
       </c>
       <c r="H21">
-        <v>1.893866085626826</v>
+        <v>3.835688013776235</v>
       </c>
       <c r="I21">
-        <v>2.083793752641611</v>
+        <v>5.302103346159157</v>
       </c>
       <c r="J21">
-        <v>0.2465105592145989</v>
+        <v>0.4732856523889666</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01549648643440449</v>
+        <v>0.01609011151149886</v>
       </c>
       <c r="D22">
-        <v>0.1067178711083758</v>
+        <v>0.03779691782187555</v>
       </c>
       <c r="E22">
-        <v>0.1408270527599811</v>
+        <v>0.1618564494667538</v>
       </c>
       <c r="F22">
-        <v>3.451993562778256</v>
+        <v>8.384434032458017</v>
       </c>
       <c r="G22">
-        <v>3.0043102689649</v>
+        <v>8.705638174616297</v>
       </c>
       <c r="H22">
-        <v>1.950233095680687</v>
+        <v>4.186345383923367</v>
       </c>
       <c r="I22">
-        <v>2.168762892302453</v>
+        <v>5.798730156424739</v>
       </c>
       <c r="J22">
-        <v>0.2532189225224784</v>
+        <v>0.516456560215417</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01544359403042606</v>
+        <v>0.01536728209638127</v>
       </c>
       <c r="D23">
-        <v>0.1067773896412065</v>
+        <v>0.03756642051133241</v>
       </c>
       <c r="E23">
-        <v>0.1400442865526053</v>
+        <v>0.1554423258390649</v>
       </c>
       <c r="F23">
-        <v>3.388455569686528</v>
+        <v>8.000370022655886</v>
       </c>
       <c r="G23">
-        <v>2.934339055916894</v>
+        <v>8.299885069180959</v>
       </c>
       <c r="H23">
-        <v>1.920047087610783</v>
+        <v>3.996982111861939</v>
       </c>
       <c r="I23">
-        <v>2.123299507958961</v>
+        <v>5.530624330081139</v>
       </c>
       <c r="J23">
-        <v>0.2496250895907792</v>
+        <v>0.4931376419435338</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01525930789880192</v>
+        <v>0.0129044861119354</v>
       </c>
       <c r="D24">
-        <v>0.1070193010077216</v>
+        <v>0.03683461389126164</v>
       </c>
       <c r="E24">
-        <v>0.1372169130121357</v>
+        <v>0.1327103416095561</v>
       </c>
       <c r="F24">
-        <v>3.151761360513774</v>
+        <v>6.63245219051035</v>
       </c>
       <c r="G24">
-        <v>2.672717196094936</v>
+        <v>6.853664268869636</v>
       </c>
       <c r="H24">
-        <v>1.807939226738313</v>
+        <v>3.323337205006226</v>
       </c>
       <c r="I24">
-        <v>1.953582449725758</v>
+        <v>4.57516018423604</v>
       </c>
       <c r="J24">
-        <v>0.2363068402489432</v>
+        <v>0.4102936382306552</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01509413279875815</v>
+        <v>0.01065682114844435</v>
       </c>
       <c r="D25">
-        <v>0.1073155030958837</v>
+        <v>0.03625713162525379</v>
       </c>
       <c r="E25">
-        <v>0.1344562352988277</v>
+        <v>0.1106288984943049</v>
       </c>
       <c r="F25">
-        <v>2.904605856285286</v>
+        <v>5.28952043618051</v>
       </c>
       <c r="G25">
-        <v>2.397447652994629</v>
+        <v>5.431584015907106</v>
       </c>
       <c r="H25">
-        <v>1.691616583404766</v>
+        <v>2.663428207795675</v>
       </c>
       <c r="I25">
-        <v>1.775596163979088</v>
+        <v>3.636065078659499</v>
       </c>
       <c r="J25">
-        <v>0.2225495127181745</v>
+        <v>0.3293315093623193</v>
       </c>
       <c r="K25">
         <v>0</v>
